--- a/BackTest/2020-01-20 BackTest ETH.xlsx
+++ b/BackTest/2020-01-20 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1718.531080045652</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1718.531080045652</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1645.201280045652</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1285.69666391662</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1145.88772871064</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1519.71852871064</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1034.39322871064</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1232.92999888081</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-911.7060950883948</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-911.7060950883948</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1179.40339633777</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1259.39729633777</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1259.39729633777</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1130.50659633777</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1097.83429633777</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1003.70949633777</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1105.71529633777</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1018.18659633777</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1086.35892750984</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1296.64902750984</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1264.42502750984</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1215.55972750984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1224.94112750984</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1216.94022750984</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1356.61052750984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1676.61762750984</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1800.21482750984</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1834.15122750984</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1737.07682750984</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1676.92822750984</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1699.40732750984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1761.91852750984</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1707.59702750984</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1755.749632560345</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2019.142632560345</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1737.783332560345</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1737.783332560345</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1474.293232560345</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1558.782932560345</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1449.102732560345</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1449.102732560345</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1458.102732560345</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1429.359932560345</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1435.249532560345</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1446.706132560345</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1395.326932560345</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1391.114232560345</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1255.649875568816</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1196.056075568816</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1223.588075568816</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2013.285275568816</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2074.221875568816</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2074.221875568816</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2090.617275568816</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2269.572475568816</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2288.705075568816</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2350.054275568816</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2307.374242303302</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2318.675985650122</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2286.346585650122</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2403.619385650122</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2516.689085650122</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2556.118285650122</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2553.167485650122</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2545.992585650122</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2545.992585650122</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2552.925385650122</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2541.98049144575</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2541.866491445749</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2542.591691445749</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2435.457591445749</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2435.457591445749</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2280.500846208915</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2267.37454027886</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2237.673740278859</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2274.66394027886</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2276.17234027886</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2261.34534027886</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2261.34534027886</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2219.683228380125</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2232.728728380126</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2306.240828380126</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2159.646328380125</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2160.096328380125</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2045.860128380125</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2061.814028380125</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2061.814028380125</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2061.748328380125</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2068.215828380125</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2057.445328380125</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2132.608628380126</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2209.441428380126</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2272.420128380126</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2277.957728380126</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2272.263728380126</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2272.009928380126</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2272.009928380126</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2278.738828380126</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2305.41845887658</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2305.41845887658</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2361.92235887658</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2316.92235887658</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2255.86065887658</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2262.77325887658</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2300.94155887658</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2300.89655887658</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2294.715486904963</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2307.050286904963</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2314.272186904963</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2314.659086904963</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2386.501686904963</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2374.317386904963</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2374.302986904963</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2373.814086904963</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2321.990723079493</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2321.990723079493</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2314.892523079493</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2443.815223079493</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2443.815223079493</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2366.871223079493</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2363.836321713788</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2363.874321713788</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2368.930021713787</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2368.930021713787</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2305.074874777079</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2303.360074777078</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2303.360074777078</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2299.034274777078</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2273.954074777078</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2285.186874777079</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2285.186874777079</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2265.186874777079</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2281.691474777079</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2281.691474777079</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2271.080774777079</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2271.080774777079</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2252.732173766978</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2191.096773766978</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2196.735073766978</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2192.547973766978</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2185.547973766978</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2185.547973766978</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2186.655373766977</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2186.082473766977</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-2186.082473766977</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2186.336673766977</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-2174.722173364157</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2174.722173364157</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2174.722173364157</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2174.722173364157</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-2125.103973364157</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2125.103973364157</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-2124.552973364157</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2124.552973364157</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-2408.805472961338</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2408.805472961338</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2427.354072961338</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2338.764872961338</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2339.135472961338</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2351.831472961338</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2340.830272961338</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-2340.830272961338</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-2378.779472961338</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-2376.666372961338</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-2441.375872961338</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-2345.174372961338</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-2335.909872961337</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-2335.909872961337</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2335.909872961337</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2334.909872961337</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2326.188772961337</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2326.188772961337</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2323.682072961337</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2304.034772961337</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-2316.848972961337</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-2374.936972961337</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-2366.497772961337</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-2429.618772961338</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-2429.518772961338</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-2414.274272961338</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-2430.857072961338</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-2401.088172961338</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-2386.023472961338</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-2386.023472961338</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-2396.008572961338</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-2416.847372961338</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-2421.011372961338</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-2442.760472961338</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-2440.502472961338</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-2445.802472961338</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-2445.802472961338</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-2445.802472961338</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-2445.600372961339</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-2440.158472961339</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-2440.389072961339</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-2439.159872961338</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2439.159872961338</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2438.033372961339</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2449.179072961339</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-2449.179072961339</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-2439.723172961339</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2446.349672961338</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2446.523372961338</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2444.148272961338</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2398.842372961338</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2527.702472961338</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-2529.392972961338</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-2529.362972961338</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-2530.215872961338</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-2526.215872961338</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-2526.215872961338</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-2520.269272961338</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2444.646972961338</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2444.646972961338</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2432.947772961338</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2433.179672961338</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2433.179672961338</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-2443.473472961338</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2447.143872961338</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2402.062272961338</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2400.11535487942</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-2387.06235487942</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-2387.06235487942</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-2370.952852883412</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2383.787952883411</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2394.623652883412</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2394.623652883412</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2384.632838697597</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-2396.316438697597</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-2429.677738697597</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-2454.514738697597</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-2510.096938697597</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-2508.486938697597</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-2505.742888072284</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-2522.658488072284</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2522.658488072284</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2531.007888072284</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2531.007888072284</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-2525.852588072284</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-2526.864988072284</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-2535.893388072284</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-2532.893388072284</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-2531.927088072284</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-2541.364688072284</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-2574.272788072285</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2547.411288072285</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-2547.411288072285</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-2547.411288072285</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-2547.411288072285</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-2547.411288072285</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-2606.560688072284</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-2598.375888072284</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-2598.375888072284</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-2598.375888072284</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-2598.122688072284</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-2602.546188072284</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-2606.862388072284</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-2709.630288072284</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-2844.072688072284</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-2741.226888072284</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-2946.734588072284</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3046.936888072284</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3021.640595222334</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3021.640595222334</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-2921.137427918512</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-2920.131391701208</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-3002.289891701208</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-2910.583791701208</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-2908.119991701208</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2908.119991701208</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-2949.185577817908</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-2912.427877817908</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-2958.357377817908</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-2958.357377817908</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-2958.025677817908</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-2953.072377817908</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-2955.133177817908</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-2969.788377817908</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-2967.813177817908</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-2944.943177817908</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-2929.486877817908</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-2940.745377817908</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-2840.566477817908</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-2892.987677817909</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-2930.472277817908</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-2931.257977817908</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-2951.023477817908</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-2888.276456532768</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-2917.982756532768</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-2962.730756532768</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-2959.902356532768</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-2970.690256532768</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-3015.897254520695</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-3062.511754520695</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-3144.161154520695</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-3207.890454520695</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-3256.683954520695</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-3256.683954520695</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-3271.400354520695</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-3231.957554520695</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-3259.556754520695</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-3268.934654520695</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-3279.807554520695</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-3304.998054520695</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-3300.864554520695</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-3300.864554520695</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-3311.953454520696</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-3374.582530590696</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-3339.992630590696</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-3359.880430590696</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-3326.644030590695</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-3334.044630590695</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-3374.720730590695</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-3361.313130590695</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-3375.516130590695</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-3357.839530590696</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-3377.196630590696</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-3408.063230590696</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-3715.483554520696</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-3597.839154520696</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-3597.839154520696</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-3603.258554520696</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-3429.879654520696</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-3300.220154520695</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3300.220154520695</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-3232.863754520695</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-3230.241154520695</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-3192.157754520696</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-3192.157754520696</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-3149.260471916372</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-3122.265271916372</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-3060.160571916372</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-3073.183671916372</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-3072.291371916372</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-3072.291371916372</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-3060.269871916372</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-3060.269871916372</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-3038.369971916372</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2977.395971916372</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-3031.840471916372</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3007.262171916372</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2924.664971916372</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3278.517471916372</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3547.478871916372</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-3611.159771916372</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-3584.646671916372</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-3608.656071916372</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-3608.656071916372</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-3540.905971916372</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-3547.579571916372</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-3703.946671916372</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-3700.182771916372</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-3700.182771916372</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-3756.058271916372</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-3756.058271916372</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-3754.747971916372</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-3754.747971916372</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-3731.318771916372</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-3731.318771916372</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-3731.318771916372</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-3673.740971916372</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-3676.988471916372</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-3664.591571916371</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-3466.017671916371</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3309.980371916371</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3571.347971916372</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3837.367572416572</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-3597.986750343826</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3623.907558120496</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-3637.134658120496</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-3624.471158120496</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-3564.831358120496</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-3615.730414224133</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-3544.436314224133</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-3671.016414224133</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-3710.266214224133</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-3615.692714224133</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-3648.20111611845</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-3798.11901611845</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-3736.73031611845</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-3752.588804221984</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-3744.162724182164</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-3837.638124182164</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-3811.473924182164</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3846.802624182164</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3819.416299306542</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3551.157899306541</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3524.343499306541</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3251.632356966432</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3251.632356966432</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3089.373900506783</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3089.373900506783</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-2921.214552015937</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-2343.269852015937</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-2852.480536190022</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-2980.17663817022</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-2915.757738170219</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-2828.935938170219</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-2828.935938170219</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-2919.141238170219</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-2994.944738170219</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3205.767238318661</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3205.767238318661</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3197.175738318661</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3273.191738318661</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3487.122838318661</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3362.589438318661</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3391.261738318661</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3491.015838318661</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3571.871738318661</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3615.173938318661</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-3765.522138318661</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-3765.522138318661</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-3999.047538318661</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-3683.806827235538</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-3666.515327235538</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-3656.835727235538</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-3671.491927235538</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-3534.091827235538</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-3534.091827235538</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-3509.114718655508</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-3547.588118655508</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-3624.927218655508</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-3695.850518655508</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-3710.408918655507</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-3683.630054305846</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-3591.675681432167</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-3610.778481432168</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-3610.778481432168</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-3610.778481432168</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-3564.134581432168</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-3491.131581432167</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-3461.414881432167</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-3523.360581432168</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-3498.322581432168</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-3487.840281432168</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-3441.203212934914</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-3457.510820427421</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-3389.960420427421</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3262.741620427421</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-3299.428310701735</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3316.349610701735</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-3307.520710701735</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-3307.520710701735</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3307.520710701735</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3025.772111188797</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3141.189770431447</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3141.189770431447</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3171.185170431447</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3204.955770431447</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3204.955770431447</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3235.401370431447</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3186.142070431447</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3259.178870431447</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3180.006770431447</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3156.011370431447</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3126.818572773251</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-3126.818572773251</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3147.384672773251</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3146.522872773251</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-3146.522872773251</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-3202.345372773251</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-3202.345372773251</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-3413.017572773251</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-3413.017572773251</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-3361.367072773251</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-3361.367072773251</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-3364.80497277325</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-3364.80497277325</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-3203.287672773251</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-3203.287672773251</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-3206.916072773251</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-3212.66867277325</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-3210.27387277325</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-3119.002125391704</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-3119.002125391704</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2978.479925391704</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2939.322125391705</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2951.322125391705</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2858.083332938874</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2837.624203714222</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2851.762988207264</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2856.763088207264</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2856.763088207264</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2844.541814114772</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-2844.541814114772</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2904.387540618999</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2984.577940618999</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-3073.922040618999</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2814.745240618999</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2814.745240618999</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2805.394540618999</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2805.394540618999</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2861.135240618999</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2825.757841215717</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2703.708341215717</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2713.823641215717</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2698.342141215717</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2571.553341215717</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2616.582767789837</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2641.839922109599</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2704.645522109599</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2704.645522109599</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2789.643222706317</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-2778.702422706317</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-2802.695522706317</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-2817.826913837358</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-2776.194213837358</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-2753.724413837358</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-2790.977213837359</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-2815.357113837359</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-2789.078213837359</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-2784.880013837359</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-2828.138613837359</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-2831.569513837359</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-2866.443613837359</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-2933.447413837359</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-2947.765713837359</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-2947.765713837359</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-2979.082113837359</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-3003.389513837359</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-3013.093213837359</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-3119.907713837359</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-3116.907713837359</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-3179.693213837359</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-3209.73360902774</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-3206.69150902774</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-3275.34420902774</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-3364.26830902774</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-3364.26830902774</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-3392.37060902774</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-3419.92540902774</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-3481.66460902774</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-3481.66460902774</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-3481.66460902774</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-3481.66460902774</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-3466.231906515177</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-3466.926806515177</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-3466.926806515177</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-3466.926806515177</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-3457.950206515177</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-3443.409106515177</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-3443.409106515177</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-3443.409106515177</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-3421.505587427152</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-3410.499484425401</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-3378.9429844254</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-3386.2517844254</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-3385.1057844254</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-3392.8880844254</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-3580.4361844254</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-3571.4261844254</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-3576.606883023998</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-3566.700483023998</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-3456.063883023999</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-3495.378283023999</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-3490.390783023999</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-3483.182984023499</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-3483.306384023499</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-3483.306384023499</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-3483.306384023499</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-3466.834484023499</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-3466.834484023499</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-3469.835984023499</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-3338.362084023499</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-3364.035484023499</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-3364.035484023499</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-3364.035484023499</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-3372.511384023499</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-3469.576584023499</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-3496.153384023499</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-3471.848579509958</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-3471.848579509958</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-3477.156079509958</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-3477.156079509958</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-3500.865479509958</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-3500.865479509958</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-3500.865479509958</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-3500.865479509958</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-3563.807379509958</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-3563.807379509958</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-3563.807379509958</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-3518.153179509958</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-3544.618279509958</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-3465.727179509958</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-3538.31447971056</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-3396.40527971056</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-3444.66267971056</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-3431.79887971056</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-3431.79887971056</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-3431.79887971056</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-3248.91177971056</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-3289.37737971056</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-3591.57527971056</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-3642.13427971056</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-3642.13427971056</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-3642.13427971056</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-3625.499479710561</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-3288.22807971056</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-3288.599579710561</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-3269.703379710561</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-3347.76107971056</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-3294.28628046244</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-3294.28628046244</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-3294.28628046244</v>
       </c>
       <c r="H716" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-3329.20598046244</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-3329.20598046244</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-3222.16688046244</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-3322.51708046244</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-3372.483537104044</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-3372.483537104044</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-3426.99372456014</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-3461.48262456014</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-3461.48262456014</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-3501.33242456014</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-3525.50242456014</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-3419.037824560141</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-3444.42312456014</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-3538.21352456014</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-3490.19372456014</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-3464.553926167373</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-3470.256926167373</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-3470.256926167373</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-3464.886026167373</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-3464.886026167373</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-3464.886026167373</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-3464.893926167373</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-3458.98832656898</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-3465.84672656898</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-3436.75542656898</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-3436.75542656898</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-3448.53312656898</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-3422.79212656898</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-3422.79212656898</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-3422.79212656898</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-3422.79212656898</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-3404.82282656898</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-3404.82282656898</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-3406.600826568979</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-3406.600826568979</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-3481.800326568979</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-3481.800326568979</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-3481.800326568979</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-3470.10182656898</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-3470.10182656898</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-3485.028926568979</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-3454.133626568979</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-3403.246126568979</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-3412.79382656898</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-3422.88382656898</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-3422.883726568979</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-3416.836026568979</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-3416.836026568979</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-3383.567245597522</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-3396.569845597522</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-3443.447445597522</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-3442.447445597522</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-3442.447445597522</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-3442.447445597522</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-3443.656345597522</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-3438.657174861864</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-3456.670074861864</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-3456.670074861864</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-3439.431374861864</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-3442.182774861864</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26026,7 @@
         <v>-3430.983534491679</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26059,7 @@
         <v>-3443.648434491679</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26092,7 @@
         <v>-3462.459934491679</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26125,7 @@
         <v>-3462.459934491679</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26158,7 @@
         <v>-3542.326834491679</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26191,7 @@
         <v>-3542.326834491679</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-3542.326834491679</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-3566.275134491679</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-3671.449834491679</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-3671.449834491679</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-3677.493434491679</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-3940.706034491679</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-3940.706034491679</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-4126.856734491679</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-3881.539816341855</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-3932.428216341855</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +26554,7 @@
         <v>-3932.428216341855</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +26587,7 @@
         <v>-4098.672616341854</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +26620,7 @@
         <v>-4098.672616341854</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-4039.761016341854</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-4039.761016341854</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-4064.816216341854</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-4202.617416341855</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-4331.080116341855</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-4331.080116341855</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-4309.889316341854</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-4309.889316341854</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-4298.177716341855</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-4199.827816341854</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-4281.131916341855</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-4073.206216341855</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-4091.395916341855</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27082,7 @@
         <v>-4104.891416341855</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27115,7 @@
         <v>-4028.162816341855</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27148,7 @@
         <v>-4056.015316341855</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-4029.061916341855</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27214,7 @@
         <v>-4024.460416341855</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-4092.064316341855</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-4092.064316341855</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-4092.064316341855</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-4097.380216341855</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-4069.793916341855</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-3992.400916341855</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-3996.314016341855</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-3996.160316341855</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-3713.394816341855</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-3392.579916341856</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-3235.128816341856</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +27610,7 @@
         <v>-3133.168916341856</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +27643,7 @@
         <v>-3133.168916341856</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +27676,7 @@
         <v>-3133.168916341856</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +27709,7 @@
         <v>-3124.681116341856</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +27742,7 @@
         <v>-3023.663216341856</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +27775,7 @@
         <v>-3037.793516341856</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-3037.793516341856</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-3024.685816341856</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-3015.158016341856</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-3033.725016341856</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-3034.198116341856</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-3029.193416341856</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-3104.186316341857</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-3084.523416842357</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-3089.730016842357</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-3089.730016842357</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-3090.248016842357</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-3084.051016842357</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-3084.051016842357</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-3084.051016842357</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-3046.500916842357</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-2908.909816842357</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-2839.286516842357</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-2869.145516842357</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-2959.532816842357</v>
       </c>
       <c r="H849" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-2864.221516842357</v>
       </c>
       <c r="H850" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-2839.581516842357</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H852" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H853" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-2925.446216842357</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-2925.446216842357</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-2923.049516842357</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-2974.704716842357</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-2977.743416842357</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-2977.743416842357</v>
       </c>
       <c r="H860" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-2974.484416842357</v>
       </c>
       <c r="H861" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-3011.229416842357</v>
       </c>
       <c r="H862" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-3011.229416842357</v>
       </c>
       <c r="H863" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-3010.838016842357</v>
       </c>
       <c r="H864" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-3021.696016842357</v>
       </c>
       <c r="H865" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-3066.019116842358</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-3017.051816842358</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-2960.648016842358</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-2945.532116842358</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-2946.031866967296</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-2953.238866967296</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-2953.238866967296</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-2953.238866967296</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-2953.238866967296</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-2878.965217092233</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-2986.575169266146</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-2754.462883730285</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-2788.200383730285</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-2792.383183730286</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-2792.845583730285</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-2792.845583730285</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-2791.146283730285</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-2791.146283730285</v>
       </c>
       <c r="H890" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-2786.018183730285</v>
       </c>
       <c r="H891" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-2889.473483730285</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-2886.183036204049</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-2661.978378291164</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-2691.440178291164</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-2712.059978291164</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-2698.044578291164</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-2698.044578291164</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-2714.328178291164</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-2714.945578291164</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-2714.945578291164</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-2691.894078291164</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-2703.694178291164</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-2643.649378291164</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-2655.856478291164</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-2658.582278291164</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-2654.964178291164</v>
       </c>
       <c r="H907" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-2654.042278291164</v>
       </c>
       <c r="H908" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-2713.519078491364</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-2718.745678491364</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-2759.979978491364</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-2759.979978491364</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-2759.979978491364</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-2757.365078491364</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-2759.606678491364</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-2759.606678491364</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-2759.606678491364</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-2759.606678491364</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-2802.710978491364</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-2820.440878491364</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-2795.231878491364</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-2793.548378491364</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-2794.311778491364</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-2800.725978491364</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-2788.368478491364</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-2788.368478491364</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-2788.368478491364</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31009,7 @@
         <v>-2793.501278491364</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31042,7 @@
         <v>-2788.842078491364</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31075,7 +31075,7 @@
         <v>-2788.842078491364</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31108,7 +31108,7 @@
         <v>-2789.494078491364</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31141,7 +31141,7 @@
         <v>-2789.149278491364</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31174,7 +31174,7 @@
         <v>-2789.149278491364</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -31207,7 +31207,7 @@
         <v>-2789.149278491364</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31240,7 +31240,7 @@
         <v>-2791.149278491364</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-2787.910876483332</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-2788.947576483332</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-2632.566534716264</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-2632.566534716264</v>
       </c>
       <c r="H939" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-2617.714934716264</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-2502.383834716264</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-2506.121434716264</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-2506.121434716264</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-2506.121434716264</v>
       </c>
       <c r="H944" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-2506.121434716264</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-2506.121434716264</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-2500.833909716263</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +31669,7 @@
         <v>-2527.199309716264</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-2528.698809716263</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +31735,7 @@
         <v>-2524.410709716263</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-2530.360709716263</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +31801,7 @@
         <v>-2530.360709716263</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +31834,7 @@
         <v>-2530.360709716263</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +31867,7 @@
         <v>-2531.461109716263</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-2525.031809716263</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-2526.285109716263</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-2526.285109716263</v>
       </c>
       <c r="H957" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-2546.712909716263</v>
       </c>
       <c r="H958" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-2546.712909716263</v>
       </c>
       <c r="H959" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-2549.780609716263</v>
       </c>
       <c r="H960" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-2586.955609716263</v>
       </c>
       <c r="H961" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-2587.460709716263</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-2657.722422009288</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-2692.714222009288</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-2692.714222009288</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-2674.705422009288</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-2674.553122009288</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>-2687.471722009288</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>-2687.471722009288</v>
       </c>
       <c r="H969" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-2692.989222009288</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-2692.989222009288</v>
       </c>
       <c r="H971" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-3084.897422009288</v>
       </c>
       <c r="H972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-3084.742422009288</v>
       </c>
       <c r="H973" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-3084.742422009288</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-3096.562022009287</v>
       </c>
       <c r="H975" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-3096.562022009287</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-3096.562022009287</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-3096.562022009287</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-3095.843722009287</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-2957.318522009287</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-2966.618522009288</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-2964.413422009287</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-2955.520222009287</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>-2958.124622411702</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-3004.895522411702</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-3022.835022411702</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-3015.130922411702</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-3015.130922411702</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-2779.256922411702</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-2776.413022411702</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-2780.531338166845</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-2775.246438166845</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-2775.707638166845</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-2775.707638166845</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-2775.707638166845</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-2775.707638166845</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-2800.916138166845</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-2800.916138166845</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-2816.686538166845</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-2803.350538166846</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-2803.350538166846</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-2717.206338166845</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-2716.893238166846</v>
       </c>
       <c r="H1003" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-2716.893238166846</v>
       </c>
       <c r="H1004" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-2716.893238166846</v>
       </c>
       <c r="H1005" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-2718.160238166845</v>
       </c>
       <c r="H1006" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>-2718.160238166845</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-2729.825938166845</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-2729.825938166845</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-2823.342538166845</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-2943.876938166845</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-2971.978084398001</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-2977.809984398001</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-2970.272684398001</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>-2974.688184398001</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-2966.827184398001</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>-2995.258384398001</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>-3004.501084398001</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>-2969.967750360797</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-2975.895650360797</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-2975.895650360797</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>-3044.994250360797</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>-3049.851050360797</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-3046.384350360797</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-3127.747250360797</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-3452.492250360797</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-4636.766350360796</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-5753.711350360796</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-6811.485950360796</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-5335.134593411998</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-5840.293180801723</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-6829.499680801723</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-6484.868580801724</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-6141.2602645362</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-6134.439841056948</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-6261.056141056948</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-6037.201241056948</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>-5877.245641056948</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>-5877.245641056948</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37345,11 +37345,17 @@
         <v>-10896.01505647069</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>186400</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37382,7 +37388,11 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37411,11 +37421,17 @@
         <v>-10839.46814917456</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>186100</v>
+      </c>
       <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37448,7 +37464,11 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37481,7 +37501,11 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37514,7 +37538,11 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37547,7 +37575,11 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37580,7 +37612,11 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37613,7 +37649,11 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37646,7 +37686,11 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37679,7 +37723,11 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37712,7 +37760,11 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37745,7 +37797,11 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37778,7 +37834,11 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37811,7 +37871,11 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37844,7 +37908,11 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37877,7 +37945,11 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37910,7 +37982,11 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37943,7 +38019,11 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37976,7 +38056,11 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38009,7 +38093,11 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38042,7 +38130,11 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38075,7 +38167,11 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38108,7 +38204,11 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38141,7 +38241,11 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38174,7 +38278,11 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38207,7 +38315,11 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38240,7 +38352,11 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38273,7 +38389,11 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38306,7 +38426,11 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38339,7 +38463,11 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38372,7 +38500,11 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38405,7 +38537,11 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38438,7 +38574,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38471,7 +38611,11 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38504,7 +38648,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38537,7 +38685,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38570,7 +38722,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38603,7 +38759,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38636,7 +38796,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38669,7 +38833,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38702,7 +38870,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38735,7 +38907,11 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38768,7 +38944,11 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38801,7 +38981,11 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38834,7 +39018,11 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38867,7 +39055,11 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38900,7 +39092,11 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38929,11 +39125,17 @@
         <v>-10536.29219689788</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>186200</v>
+      </c>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -38962,11 +39164,17 @@
         <v>-10521.78543996984</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>186000</v>
+      </c>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -38995,11 +39203,17 @@
         <v>-10565.98973996984</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>186200</v>
+      </c>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39028,7 +39242,7 @@
         <v>-10565.98973996984</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1171" t="n">
         <v>186000</v>
@@ -39036,7 +39250,7 @@
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1171" t="n">
@@ -39067,7 +39281,7 @@
         <v>-10565.98973996984</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1172" t="n">
         <v>186000</v>
@@ -39106,7 +39320,7 @@
         <v>-10733.02553996984</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1173" t="n">
         <v>186000</v>
@@ -39145,7 +39359,7 @@
         <v>-10308.61513996984</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1174" t="n">
         <v>185000</v>
@@ -39184,9 +39398,11 @@
         <v>-10379.58683996984</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>185600</v>
+      </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39221,7 +39437,7 @@
         <v>-9905.964105593155</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1176" t="n">
         <v>184700</v>
@@ -39260,7 +39476,7 @@
         <v>-9842.719105593154</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1177" t="n">
         <v>185300</v>
@@ -39299,7 +39515,7 @@
         <v>-9854.695705593154</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1178" t="n">
         <v>185500</v>
@@ -39338,7 +39554,7 @@
         <v>-9841.790801662082</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1179" t="n">
         <v>185200</v>
@@ -39377,7 +39593,7 @@
         <v>-9845.097401662082</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1180" t="n">
         <v>185700</v>
@@ -39416,7 +39632,7 @@
         <v>-9840.028901662083</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1181" t="n">
         <v>185300</v>
@@ -39455,7 +39671,7 @@
         <v>-9840.028901662083</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1182" t="n">
         <v>185400</v>
@@ -39494,7 +39710,7 @@
         <v>-9727.760501662082</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1183" t="n">
         <v>185400</v>
@@ -39533,7 +39749,7 @@
         <v>-9639.317801662082</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1184" t="n">
         <v>185600</v>
@@ -39572,7 +39788,7 @@
         <v>-9601.701201662083</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1185" t="n">
         <v>185700</v>
@@ -39611,7 +39827,7 @@
         <v>-9601.701201662083</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1186" t="n">
         <v>186300</v>
@@ -39650,7 +39866,7 @@
         <v>-9585.905401662083</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1187" t="n">
         <v>186300</v>
@@ -39689,7 +39905,7 @@
         <v>-9577.979101662084</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1188" t="n">
         <v>186400</v>
@@ -39728,7 +39944,7 @@
         <v>-9588.553401662084</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1189" t="n">
         <v>186600</v>
@@ -39767,9 +39983,11 @@
         <v>-9588.283901662084</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>186300</v>
+      </c>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
@@ -39804,9 +40022,11 @@
         <v>-9588.283901662084</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>186500</v>
+      </c>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
@@ -39841,9 +40061,11 @@
         <v>-9344.085301662084</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>186500</v>
+      </c>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -39878,9 +40100,11 @@
         <v>-9317.207001662084</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>186900</v>
+      </c>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -41299,6 +41523,6 @@
       <c r="M1231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ETH.xlsx
+++ b/BackTest/2020-01-20 BackTest ETH.xlsx
@@ -451,7 +451,7 @@
         <v>-1718.531080045652</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1034.39322871064</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-911.7060950883948</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1179.40339633777</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1259.39729633777</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1259.39729633777</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1130.50659633777</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1296.64902750984</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1264.42502750984</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1215.55972750984</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1224.94112750984</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1216.94022750984</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1356.61052750984</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1676.61762750984</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1800.21482750984</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1834.15122750984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1737.07682750984</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1676.92822750984</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1737.783332560345</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1737.783332560345</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1474.293232560345</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1558.782932560345</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1449.102732560345</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1449.102732560345</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1458.102732560345</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1429.359932560345</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1435.249532560345</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1446.706132560345</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1395.326932560345</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1391.114232560345</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1255.649875568816</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1196.056075568816</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1223.588075568816</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1291.874475568816</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1676.905375568816</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1757.174275568816</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2114.519575568816</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2286.346585650122</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2403.619385650122</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2552.925385650122</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2541.98049144575</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-2541.866491445749</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-2542.591691445749</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2435.457591445749</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2435.457591445749</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2445.93793156733</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2445.12863156733</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2469.165631567329</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-2552.206138888122</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-2456.608646208916</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2507.790046208916</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2480.124446208916</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2498.489746208916</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2329.059146208916</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2280.500846208915</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2280.500846208915</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2267.37454027886</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2237.673740278859</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2237.673740278859</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2220.33704027886</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2107.65094027886</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2274.66394027886</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2276.17234027886</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2261.34534027886</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2261.34534027886</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2219.683228380125</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2232.728728380126</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2306.240828380126</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2321.941228380126</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2299.785228380126</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2296.369428380126</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2296.125628380125</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2296.125628380125</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2246.816628380125</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2246.816628380125</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-2238.740328380125</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2228.545428380125</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2189.356828380125</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2189.414428380125</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2159.646328380125</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2160.096328380125</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2045.860128380125</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2061.814028380125</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2061.814028380125</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2061.748328380125</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2068.215828380125</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2057.445328380125</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2132.608628380126</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2209.441428380126</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2272.420128380126</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2277.957728380126</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2272.263728380126</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2272.009928380126</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2272.009928380126</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2278.738828380126</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2305.41845887658</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2305.41845887658</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2361.92235887658</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-2316.92235887658</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-2255.86065887658</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2262.77325887658</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2300.94155887658</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2300.89655887658</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2294.715486904963</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2307.050286904963</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2314.272186904963</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2314.659086904963</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-2386.501686904963</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-2374.317386904963</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-2374.302986904963</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-2373.814086904963</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-2373.445586904963</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2374.036486904963</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-2352.696986904963</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-2352.569086904963</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2358.679586904963</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2358.670786904963</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2358.670786904963</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2366.918523079493</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2363.782123079493</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2363.864623079493</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2314.699123079493</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2314.699123079493</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2315.787823079493</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2321.990723079493</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2321.990723079493</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2321.990723079493</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2329.733723079493</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2329.973123079493</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2329.469223079493</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2329.469223079493</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2314.892523079493</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2334.755023079493</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2332.687723079493</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2330.687723079493</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2325.389623079493</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2315.369623079493</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2443.815223079493</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2443.815223079493</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2450.196223079493</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2366.871223079493</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2363.836321713788</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2363.874321713788</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2368.930021713787</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2368.930021713787</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2368.930021713787</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2369.128321713787</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2304.888274777079</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2305.074874777079</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2305.074874777079</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2303.360074777078</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2303.360074777078</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2299.034274777078</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2273.954074777078</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2285.186874777079</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2285.186874777079</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2265.186874777079</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2281.691474777079</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2281.691474777079</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2271.080774777079</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2271.080774777079</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2267.080774777079</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2252.732173766978</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2244.719073766978</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2191.096773766978</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2196.735073766978</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2192.547973766978</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2185.547973766978</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-2186.082473766977</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2186.336673766977</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2170.944373766977</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-2313.048372961338</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-2335.909872961337</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-2334.909872961337</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-2326.188772961337</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-2326.188772961337</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-2323.682072961337</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-2304.034772961337</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-2439.159872961338</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-2438.033372961339</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-2449.179072961339</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-2446.349672961338</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-2446.523372961338</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2444.148272961338</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-2408.276372961338</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-2397.945972961338</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-2398.564972961338</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-2398.842372961338</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-2527.702472961338</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2433.179672961338</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2433.179672961338</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-2443.473472961338</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-2447.143872961338</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-2402.062272961338</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-2400.11535487942</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-2387.06235487942</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-2387.06235487942</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-2370.952852883412</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-2383.787952883411</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-2394.623652883412</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-2394.623652883412</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-3326.644030590695</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-3334.044630590695</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-3007.262171916372</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-2924.664971916372</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-3278.517471916372</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-3547.478871916372</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-3309.980371916371</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-3571.347971916372</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-3837.367572416572</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-3623.907558120496</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-3637.134658120496</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-3624.471158120496</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-3564.831358120496</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-3615.730414224133</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-3544.436314224133</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-3671.016414224133</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-3710.266214224133</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-3615.692714224133</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-3648.20111611845</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-3798.11901611845</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-3736.73031611845</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-3752.588804221984</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-3744.162724182164</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-3837.638124182164</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-3811.473924182164</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-3846.802624182164</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-3819.416299306542</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-3551.157899306541</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-3524.343499306541</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-3431.740699306541</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-3251.632356966432</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-3251.632356966432</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-3089.373900506783</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-3089.373900506783</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-2921.214552015937</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-2343.269852015937</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-2852.480536190022</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-2980.17663817022</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-2915.757738170219</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-2828.935938170219</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-2828.935938170219</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-2919.141238170219</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-2994.944738170219</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-3205.767238318661</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-3205.767238318661</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-3197.175738318661</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-3273.191738318661</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-3487.122838318661</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-3362.589438318661</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-3391.261738318661</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-3491.015838318661</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-3571.871738318661</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-3615.173938318661</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-3457.510820427421</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-3389.960420427421</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-3348.880420427421</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-3262.741620427421</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-3316.349610701735</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-3307.520710701735</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-3007.69255508516</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-3025.772111188797</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-3141.189770431447</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-3141.189770431447</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-3171.185170431447</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-3204.955770431447</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-3204.955770431447</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-3235.401370431447</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-3186.142070431447</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-3259.178870431447</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-3180.006770431447</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-3156.011370431447</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-3126.818572773251</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-3126.818572773251</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-3147.384672773251</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-3146.522872773251</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-3146.522872773251</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-3202.345372773251</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-3202.345372773251</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-3261.653172773251</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-3413.017572773251</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-3413.017572773251</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-3361.367072773251</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-3361.367072773251</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-3364.80497277325</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-3364.80497277325</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-3119.002125391704</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-2978.479925391704</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-2939.322125391705</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-2951.322125391705</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-2858.083332938874</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-2837.624203714222</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-2851.762988207264</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-2856.763088207264</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-2856.763088207264</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-2844.541814114772</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-2844.541814114772</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-2904.387540618999</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-2984.577940618999</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-3073.922040618999</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-2814.745240618999</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-2814.745240618999</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-2805.394540618999</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-2805.394540618999</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-2861.135240618999</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-2825.757841215717</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-2703.708341215717</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-2713.823641215717</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-2698.342141215717</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-2571.553341215717</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-2616.582767789837</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-2641.839922109599</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-2704.645522109599</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-2704.645522109599</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-2789.643222706317</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-2778.702422706317</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-2802.695522706317</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-2817.826913837358</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-2776.194213837358</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-2753.724413837358</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-2790.977213837359</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-2815.357113837359</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-2789.078213837359</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-2784.880013837359</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-2773.033184838854</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-2828.138613837359</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-2831.569513837359</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-2866.443613837359</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-2933.447413837359</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-3015.158016341856</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-3033.725016341856</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-3034.198116341856</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-3029.193416341856</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-3104.186316341857</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-3084.523416842357</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-3089.730016842357</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-3089.730016842357</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-3084.051016842357</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-3046.500916842357</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-2908.909816842357</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-2839.286516842357</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28369,7 @@
         <v>-2869.145516842357</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28402,7 +28402,7 @@
         <v>-2959.532816842357</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28435,7 +28435,7 @@
         <v>-2864.221516842357</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28468,7 @@
         <v>-2839.581516842357</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28501,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28534,7 +28534,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28567,7 +28567,7 @@
         <v>-2908.216216842357</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28600,7 +28600,7 @@
         <v>-2925.446216842357</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28633,7 +28633,7 @@
         <v>-2925.446216842357</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28666,7 +28666,7 @@
         <v>-2923.049516842357</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28699,7 +28699,7 @@
         <v>-2974.704716842357</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28732,7 @@
         <v>-2977.743416842357</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28765,7 @@
         <v>-2977.743416842357</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28798,7 @@
         <v>-2974.484416842357</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28831,7 @@
         <v>-3011.229416842357</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         <v>-3011.229416842357</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28897,7 @@
         <v>-3010.838016842357</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28930,7 @@
         <v>-3021.696016842357</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +28963,7 @@
         <v>-3066.019116842358</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +28996,7 @@
         <v>-3017.051816842358</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29029,7 @@
         <v>-2960.648016842358</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29062,7 @@
         <v>-2945.532116842358</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29095,7 @@
         <v>-2946.031866967296</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29128,7 +29128,7 @@
         <v>-2953.238866967296</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-2878.965217092233</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-2986.575169266146</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-2761.607783730285</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-2754.462883730285</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-2788.200383730285</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-2793.671883730286</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-2792.845583730285</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-2792.845583730285</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-2791.146283730285</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-2786.018183730285</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-2889.473483730285</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-2886.183036204049</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-2691.440178291164</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-2714.328178291164</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31702,7 +31702,7 @@
         <v>-2528.698809716263</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-6829.499680801723</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-6484.868580801724</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-6141.2602645362</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>-6355.803064536201</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>-5947.2552645362</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>-6088.477278073996</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-6134.439841056948</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>-5604.474441056947</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>-5387.785441056947</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>-5529.443141056947</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36124,7 +36124,7 @@
         <v>-7961.064711461075</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36157,7 @@
         <v>-8033.429611461074</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36190,7 @@
         <v>-8011.652711461074</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36223,7 @@
         <v>-8277.022811461075</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36256,7 @@
         <v>-9389.33980998116</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36289,7 @@
         <v>-9893.302409981161</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36322,7 +36322,7 @@
         <v>-9509.734909981162</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37939,7 +37939,7 @@
         <v>-9634.766411219056</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -37972,7 +37972,7 @@
         <v>-9705.854386042509</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38005,7 +38005,7 @@
         <v>-9705.854386042509</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38038,7 +38038,7 @@
         <v>-9705.854386042509</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38071,7 +38071,7 @@
         <v>-9651.451200873018</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38104,7 +38104,7 @@
         <v>-9642.738700873018</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38137,7 +38137,7 @@
         <v>-9586.230900873019</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38170,7 +38170,7 @@
         <v>-9615.42730087302</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38203,7 +38203,7 @@
         <v>-9976.05720087302</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38236,7 +38236,7 @@
         <v>-9976.05720087302</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38269,7 +38269,7 @@
         <v>-9984.093800873019</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -38302,7 +38302,7 @@
         <v>-9996.740700873019</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -38335,7 +38335,7 @@
         <v>-10024.37820087302</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -38368,7 +38368,7 @@
         <v>-10006.28430087302</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -38401,7 +38401,7 @@
         <v>-10024.82260087302</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -38434,7 +38434,7 @@
         <v>-10024.82260087302</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -38467,7 +38467,7 @@
         <v>-10038.42220087302</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -38500,7 +38500,7 @@
         <v>-10043.82850087302</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -38533,7 +38533,7 @@
         <v>-10079.79680087302</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -38566,7 +38566,7 @@
         <v>-10079.79680087302</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -38599,7 +38599,7 @@
         <v>-10133.21890087302</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -38632,7 +38632,7 @@
         <v>-10243.16080087302</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -38665,7 +38665,7 @@
         <v>-10771.04280087302</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -38698,7 +38698,7 @@
         <v>-10504.81830173139</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -38797,17 +38797,11 @@
         <v>-10545.10500173139</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1164" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38836,17 +38830,11 @@
         <v>-10759.43350173139</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1165" t="n">
-        <v>186100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38875,17 +38863,11 @@
         <v>-10759.43350173139</v>
       </c>
       <c r="H1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1166" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38914,17 +38896,11 @@
         <v>-10497.32759689788</v>
       </c>
       <c r="H1167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1167" t="n">
-        <v>186000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38961,7 +38937,7 @@
       <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1168" t="n">
@@ -39928,11 +39904,9 @@
         <v>-9317.207001662084</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>186900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40152,16 +40126,18 @@
         <v>-9356.707049016439</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1199" t="inlineStr"/>
+      <c r="L1199" t="n">
+        <v>1</v>
+      </c>
       <c r="M1199" t="inlineStr"/>
     </row>
     <row r="1200">
@@ -40187,11 +40163,15 @@
         <v>-9141.855922428078</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40220,11 +40200,15 @@
         <v>-9141.855922428078</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40253,11 +40237,15 @@
         <v>-9093.009022428078</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40286,11 +40274,15 @@
         <v>-9093.009022428078</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40319,11 +40311,15 @@
         <v>-9102.555522428078</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40352,11 +40348,15 @@
         <v>-9102.555522428078</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40385,11 +40385,15 @@
         <v>-9214.501322428077</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40418,11 +40422,15 @@
         <v>-9214.501322428077</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40451,11 +40459,15 @@
         <v>-9173.705622428077</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40484,11 +40496,15 @@
         <v>-9190.625121625937</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40517,11 +40533,15 @@
         <v>-9042.236121625938</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40550,11 +40570,15 @@
         <v>-8848.151821625937</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40583,11 +40607,15 @@
         <v>-8848.151821625937</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40616,11 +40644,15 @@
         <v>-8857.828121625937</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40649,11 +40681,15 @@
         <v>-9111.509021625936</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40682,11 +40718,15 @@
         <v>-9111.509021625936</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40715,11 +40755,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40748,11 +40792,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40781,11 +40829,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40814,11 +40866,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40847,11 +40903,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40880,11 +40940,15 @@
         <v>-9102.657621625936</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40913,11 +40977,15 @@
         <v>-9092.366021625936</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40946,11 +41014,15 @@
         <v>-9092.366021625936</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -40979,11 +41051,15 @@
         <v>-9092.366021625936</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41012,11 +41088,15 @@
         <v>-9092.366021625936</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41045,11 +41125,15 @@
         <v>-9092.146021625937</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41078,11 +41162,15 @@
         <v>-9092.405021625937</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41111,11 +41199,15 @@
         <v>-9086.714921625937</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41144,11 +41236,15 @@
         <v>-9086.714921625937</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41177,11 +41273,15 @@
         <v>-9086.714921625937</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41210,11 +41310,15 @@
         <v>-8996.29135495927</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
